--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Bibliografia_App_1_indices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5078EC34-3D80-4A33-A2E8-18503343FECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17B2C5-57D3-4AE1-8EEA-307883B624A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Cultivos poco densos o inicio de temporada (cobertura menor a 40%)</t>
   </si>
   <si>
-    <t>Cultivos densos (media temporada y final de temporada</t>
-  </si>
-  <si>
     <t>Regiones montañosas o con alto contenido de material particulado</t>
   </si>
   <si>
@@ -95,18 +92,6 @@
   </si>
   <si>
     <t>Desarrollado por  Kriegler et al (1969), utiliza la banda del infrarrojo cercano (NIR) y la banda roja (RED) del espectro electromagnético de acuerdo a la siguiente fórmula.</t>
-  </si>
-  <si>
-    <t>Medir es el verdor de los cultivos y así el estado de salud de las plantas. 
-Monitorear la cantidad, calidad y desarrollo de un cultivo. 
-Monitorear sequías.</t>
-  </si>
-  <si>
-    <t>La vegetación verde  está entre 0,2 y 0,8, sin embargo estos valores dependen del tipo de cultivos, región y temporada.
- En términos generales:
-Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto)
-Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
-Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos .</t>
   </si>
   <si>
     <t>Entre más alto es el valor, las condiciones de vigor del cultivos son mejores</t>
@@ -155,77 +140,33 @@
     <t>Monitoreo Específico</t>
   </si>
   <si>
-    <t>Los índices de vegetación son cálculos realizados mediante una o mas bandas espectrales registradas por lo satélites de Teledetección.
-Para estimar la salud del cultivo  con datos visuales, el verdor de la vegetación en la propiedad más importante. Por esta razón los índices de vegetación se basan mayormente en el verdor observado en las imágenes satelitales. Específicamente la clorofila presente en las hojas es un indicador directo de la producción primaria y capacidad fotosintética. En este contexto, varios de los índices de vegetación están diseñados para comparar la actividad fotosintética en el campo y permiten ver diferencias relativas en la salud de los cultivos en el campo.</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
     <t>Principales Usos</t>
   </si>
   <si>
-    <t>Comprender el estado nutricional de la planta (mayormente absorción de Nitrógeno)</t>
-  </si>
-  <si>
-    <t>Identificar la senescencia en cultivos</t>
-  </si>
-  <si>
-    <t>Identificar estrés hídrico, enfermedades y otros causas que afecten a los cultivos.</t>
-  </si>
-  <si>
     <t>Proyectar rendimientos de cultivos.</t>
   </si>
   <si>
     <t>Definir estrategias de riego y fertilización.</t>
   </si>
   <si>
-    <t>Estos índice se dividen en dos grupos, los que permiten el monitoreo del agua líquida en el cultivo y los que permiten el monitoreo de la humedad en el suelo.</t>
-  </si>
-  <si>
     <t>Detección temprana de estrés hídrico (sequía).</t>
   </si>
   <si>
     <t>Detección de zonas anegadas y charcas.</t>
   </si>
   <si>
-    <t>Evaluación de evolución temporal durante largos períodos de tiempo de la humedad del suelo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estos índices tienen el fin de monitorear la cobertura del suelo. </t>
-  </si>
-  <si>
-    <t>Evaluación de evolución temporal durante largos períodos de tiempo de la cobertura del suelo.</t>
-  </si>
-  <si>
-    <t>Discriminar agricultura tradicional y agricultura de conservación.</t>
-  </si>
-  <si>
     <t>Cuantificar cantidad de residuos post cosecha.</t>
   </si>
   <si>
-    <t>Riesgo a erosión de suelos descubiertos.</t>
-  </si>
-  <si>
     <t>Atmospherically resistant vegetation index</t>
   </si>
   <si>
     <t>Índice de Vegetación Atmosféricamente Resistente</t>
   </si>
   <si>
-    <t>Utiliza básicamente la fórmula del NDVI corregida para los efectos de dispersión atmosférica en el espectro de reflectancia rojo, utilizando las medidas en longitudes de ondas azules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medir es el verdor de los cultivos y así el estado de salud de las Plantas. 
-Monitorear la cantidad, calidad y desarrollo de un cultivo. </t>
-  </si>
-  <si>
-    <t>La vegetación verde generalmente está entre 0,2 y 0,8, sin embargo estos los valores dependen del tipo de cultivo, región y temporada. En términos generales:
-Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto)
-Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
-Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos .</t>
-  </si>
-  <si>
     <t>ARVI=(NIR-(2∗RED+BLUE))/(NIR+(2∗RED+BLUE))</t>
   </si>
   <si>
@@ -233,15 +174,6 @@
   </si>
   <si>
     <t>Indice de Vegetación Mejorado</t>
-  </si>
-  <si>
-    <t>Utiliza la región de reflección azul para correcciones y reducir los efectos  del fondo del suelo y efectos atmosféricos (como dispersión de aerosol). Es decir que corrige las debilidades del NDVI.</t>
-  </si>
-  <si>
-    <t>Monitoreo y evaluación de variabilidad en el desarrollo del cultivo  de alta densidad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La vegetación saludable generalmente está entre 0,2 y 0,8, sin embargo esto depende del tipo de cultivo, región y temporada. </t>
   </si>
   <si>
     <t xml:space="preserve">Mejor al NDVI en cultivos con muy alto índice de área foliar (densidad foliar). </t>
@@ -266,283 +198,358 @@
 Monitorear vegetación con estrés y vegetación envejecida. </t>
   </si>
   <si>
-    <t>Si bien los valores dependen del tipo de cultivo, región y temporada, en términos generales:
+    <t>Es más sensible a la concentración de clorofila que el NDVI cuando se utiliza en la etapa intermedia y final del ciclo de lcultivo</t>
+  </si>
+  <si>
+    <t>GNDVI=(NIR-GREEN)/(NIR+RED)</t>
+  </si>
+  <si>
+    <t>Normalized Difference Red Edge</t>
+  </si>
+  <si>
+    <t>Evaluar contenido de clorofila en la hoja y vigor de la planta. Asimismo permite monitorear la demanda y absorción de nitrógeno.</t>
+  </si>
+  <si>
+    <t>Muy eficiente para huertos frutales debido a que puede penetrar más profundamente en la la copa de árboles. En cultivos permanentes se debe utilizan en conjunto con el NDVI</t>
+  </si>
+  <si>
+    <t>NDRE=(NIR-RedEdge)/(NIR+RedEdge)</t>
+  </si>
+  <si>
+    <t>Green Chlorophyll Index</t>
+  </si>
+  <si>
+    <t>Estima el contenido de clorofila en cultivos utilizando la banda del infrarrojo cercano (NIR) y la banda verde (GREEN). El contenido de clorofila refleja el estado fisiológico de la vegetación. Disminuye en plantas estresadas y por lo tanto es un indicador de la sanidad del cultivo.</t>
+  </si>
+  <si>
+    <t>Muy sensible al cambio en contenido de clorofila</t>
+  </si>
+  <si>
+    <t>GCI=(NIR/GREEN)-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll vegetation index </t>
+  </si>
+  <si>
+    <t>Muy sensible  en vegetación  no densa, vegetación decidua  o al inicio de temporada</t>
+  </si>
+  <si>
+    <t>CVI=(NIR/GREEN)∗(RED/GREEN)</t>
+  </si>
+  <si>
+    <t>Monitoreo vigor planta ajustado al suelo</t>
+  </si>
+  <si>
+    <t>SAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil Adjusted Vegetation Index </t>
+  </si>
+  <si>
+    <t>Indice de Vegetación Ajustado al Suelo</t>
+  </si>
+  <si>
+    <t>Útil en vegetación no densa o al inicio de temporada. Es menos sensible a cambio en la vegetación (cantidad y cobertura de la vegetación verde)</t>
+  </si>
+  <si>
+    <t>SAVI=((NIR-RED)/(NIR+RED+L))∗(1+L)</t>
+  </si>
+  <si>
+    <t>MSAVI2</t>
+  </si>
+  <si>
+    <t>Modified Soil Adjusted Vegetation Index </t>
+  </si>
+  <si>
+    <t>Indice de Vegetación Ajustado al Suelo Modificado</t>
+  </si>
+  <si>
+    <t>MSAVI2=(2∗NIR+1-(√(2∗NIR+1)2-8(NIR-Red)))/2</t>
+  </si>
+  <si>
+    <t>Estado hídrico de planta y suelo</t>
+  </si>
+  <si>
+    <t>NDMI/NDWI</t>
+  </si>
+  <si>
+    <t>Normalized Difference Moisture Index / Normalized Difference Water Index</t>
+  </si>
+  <si>
+    <t>Monitorear el cambio en el contenido de agua líquida en la vegetación.</t>
+  </si>
+  <si>
+    <t>NDWI o NDMI=((NIR-SWIR)/(NIR+SWIR))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDWI </t>
+  </si>
+  <si>
+    <t>Normalized Difference Water Index</t>
+  </si>
+  <si>
+    <t>Índice Diferencial de Agua Normalizado</t>
+  </si>
+  <si>
+    <t>Monitorear  áreas con gran saturación de agua y cambios en masas de agua.</t>
+  </si>
+  <si>
+    <t>NDWI =((GREEN -NIR)/(GREEN+NIR))</t>
+  </si>
+  <si>
+    <t>TDVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature–Vegetation Dryness Index </t>
+  </si>
+  <si>
+    <t>Integra temperatura, vegetación y humedad del suelo. Es decir compara la humedad del suelo y la temperatura con el NDVI.</t>
+  </si>
+  <si>
+    <t>Monitorear humedad del suelo y estrés hídrico de cultivo.</t>
+  </si>
+  <si>
+    <t>TVDI=(Ts-Tsmin)/(a+b∗NDVI-Tsmin)</t>
+  </si>
+  <si>
+    <t>Cobertura del suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo suelos descubiertos</t>
+  </si>
+  <si>
+    <t>NDTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized Difference Tillage Index </t>
+  </si>
+  <si>
+    <t>Indice Diferencial Normalizado de Labranza</t>
+  </si>
+  <si>
+    <t>Estima la cubierta de residuos, mediante la diferencia en reflectancia entre 2 bandas infrarrojas de onda corta (SWIR) cerca de 1600nm y 2300nm.</t>
+  </si>
+  <si>
+    <t>Valores cercanos a 0 corresponden a labranza tradicional.
+Valores mayores a 0,15  corresponden a labranza de conservación.</t>
+  </si>
+  <si>
+    <t>NDTI=(SWIR3-SWIR8)/(SWIR3+SWIR8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINDRI  </t>
+  </si>
+  <si>
+    <t>Shortwave infrared normalized difference residue index</t>
+  </si>
+  <si>
+    <t>Se calcula utilizando el infrarrojo de onda corta.</t>
+  </si>
+  <si>
+    <t>Valores menores o iguales a 0 corresponden a labranza tradicional.
+Valores mayores a 0,1 corresponden a labranza de conservación.</t>
+  </si>
+  <si>
+    <t>SINDRI=(R2210-R2260)/(R2210-R2260)</t>
+  </si>
+  <si>
+    <t>BSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare Soil Index </t>
+  </si>
+  <si>
+    <t>Indice de Suelos Descubiertos</t>
+  </si>
+  <si>
+    <t>Es un indicador numérico que combina bandas espectrales azules, rojas, infrarrojas cercanas e infrarrojas de onda corta para capturar las variaciones del suelo.</t>
+  </si>
+  <si>
+    <t>Monitorear suelos descubiertos a los largo de la temporada.</t>
+  </si>
+  <si>
+    <t> BSI=((RED+SWIR)-(NIR+BLUE))/((RED+SWIR)+(NIR+BLUE) )</t>
+  </si>
+  <si>
+    <t>Sin información disponible</t>
+  </si>
+  <si>
+    <t>Se dividen en dos grupos: i) los que permiten el monitoreo del agua líquida en el cultivo y ii) los que permiten el monitoreo de la humedad en el suelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tienen el fin de monitorear la cobertura del suelo. </t>
+  </si>
+  <si>
+    <t>Comprender el estado nutricional de la planta (mayormente absorción de Nitrógeno).</t>
+  </si>
+  <si>
+    <t>Identificar la senescencia en cultivos.</t>
+  </si>
+  <si>
+    <t>Identificar estrés hídrico, enfermedades y otras causas que afecten a los cultivos.</t>
+  </si>
+  <si>
+    <t>Evaluación de la evolución temporal durante largos períodos de tiempo de la humedad del suelo.</t>
+  </si>
+  <si>
+    <t>Evaluación de la evolución temporal durante largos períodos de tiempo de la cobertura del suelo.</t>
+  </si>
+  <si>
+    <t>Utiliza básicamente la fórmula del Indice Diferencial Normalizado de Vegetación (NDVI) corregida para los efectos de dispersión atmosférica en el espectro de reflectancia rojo, utilizando las medidas en longitudes de ondas azules</t>
+  </si>
+  <si>
+    <t>Entre más cercano a 1 el valor, las condiciones de vigor del cultivos son mejores</t>
+  </si>
+  <si>
+    <t>Su rango de valores varía de 1 a 2,4.  Entre más cercano a 2,4 mayor contenido de clorofila.</t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1, en donde la vegetación verde generalmente está entre 0,2 y 0,8, sin embargo estos valores dependen del tipo de cultivo, región y temporada. En términos generales:
+Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubiertos, rocas, nieve, concreto).
+Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
+Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1. Si bien los valores dependen del tipo de cultivo, región y temporada, en términos generales:
 Valores entre -1 y 0 están asociados a presencia de agua o suelo desnudo.
 Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
 Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
   </si>
   <si>
-    <t>Es más sensible a la concentración de clorofila que el NDVI cuando se utiliza en la etapa intermedia y final del ciclo de lcultivo</t>
-  </si>
-  <si>
-    <t>GNDVI=(NIR-GREEN)/(NIR+RED)</t>
-  </si>
-  <si>
-    <t>Normalized Difference Red Edge</t>
-  </si>
-  <si>
-    <t>Índice de Diferencia Normalizada de Borde Rojo</t>
-  </si>
-  <si>
-    <t>Se construye utilizando las reflexiones de la luz infrarroja cercana (NIR) y la luz RedEdge. Mide el estado de salud de la planta siendo muy sensible a los cambio de Nitrógeno. Es mejor que el NDVI para cultivos en temporada media y tardía de crecimiento que ya han acumulado gran cantidad de clorofila</t>
-  </si>
-  <si>
-    <t>Evaluar contenido de clorofila en la hoja y vigor de la planta. Asimismo permite monitorear la demanda y absorción de nitrógeno.</t>
-  </si>
-  <si>
-    <t>La vegetación verde se encuentra entre  0,2 y 0,9. Los valores dependen del tipo de cultivo, región y temporada, en términos generales:
-Valores menores a 0,5 corresponden a cultivos con menor concentración de clorofila en hojas y menor capacidad de fotosíntesis (es decir plantas poco saludables o estresadas)
-Valores mayores a 0,5 corresponden a cultivos con mayo concentración de clorofila en hojas y mayor capacidad de fotosíntesis (es decir plantas vigorosas y saludables)</t>
-  </si>
-  <si>
-    <t>Muy eficiente para huertos frutales debido a que puede penetrar más profundamente en la la copa de árboles. En cultivos permanentes se debe utilizan en conjunto con el NDVI</t>
-  </si>
-  <si>
-    <t>NDRE=(NIR-RedEdge)/(NIR+RedEdge)</t>
-  </si>
-  <si>
-    <t>Green Chlorophyll Index</t>
-  </si>
-  <si>
-    <t>Índice de clorofila</t>
-  </si>
-  <si>
-    <t>Estima el contenido de clorofila en cultivos utilizando la banda del infrarrojo cercano (NIR) y la banda verde (GREEN). El contenido de clorofila refleja el estado fisiológico de la vegetación. Disminuye en plantas estresadas y por lo tanto es un indicador de la sanidad del cultivo.</t>
-  </si>
-  <si>
-    <t>Monitoreo de impacto de temporalidad, estrés ambiental y aplicación de pesticidas en la salud del cultivo</t>
-  </si>
-  <si>
-    <t>Varía entre 0 a 2.4. Entre más cercano a 2,4 mayor contenido de clorofila</t>
-  </si>
-  <si>
-    <t>Muy sensible al cambio en contenido de clorofila</t>
-  </si>
-  <si>
-    <t>GCI=(NIR/GREEN)-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll vegetation index </t>
-  </si>
-  <si>
-    <t>Índice de clorofila de vegatación</t>
-  </si>
-  <si>
-    <t>Es mejor que el NDVI para cultivo en temporada temprana y media (cobertura menor al 40%). Utiliza el infrarrojo cercano (NIR) y las bandas verde (GREEN) y roja (RED).</t>
-  </si>
-  <si>
-    <t>Monitoreo de estado de salud del cultivo y cambio en clorofila en vegetación no densa o al inicio de temporada</t>
-  </si>
-  <si>
-    <t>Su rango varía de 1 a 2,4.  Entre más cercano a 2,4 mayor contenido de clorofila</t>
-  </si>
-  <si>
-    <t>Muy sensible  en vegetación  no densa, vegetación decidua  o al inicio de temporada</t>
-  </si>
-  <si>
-    <t>CVI=(NIR/GREEN)∗(RED/GREEN)</t>
-  </si>
-  <si>
-    <t>Monitoreo vigor planta ajustado al suelo</t>
-  </si>
-  <si>
-    <t>SAVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil Adjusted Vegetation Index </t>
-  </si>
-  <si>
-    <t>Indice de Vegetación Ajustado al Suelo</t>
-  </si>
-  <si>
-    <t>Similar al NDVI pero corrige los efectos del suelo cuando la vegetación es baja utilizando un factor de corrección (L). Por lo tanto, discrimina mejor en vegetación no densa o al inicio de temporada.</t>
-  </si>
-  <si>
-    <t>Monitoreo de vegetación en cultivo jóvenes y en regiones áridas con cultivos dispersos</t>
-  </si>
-  <si>
-    <t>Valores menores a 0,5 corresponden a cultivos con menor cantidad de cobertura verde.
+    <t>El rango de valores varía entre 0 a 2.4. Entre más cercano a 2,4 mayor contenido de clorofila</t>
+  </si>
+  <si>
+    <t>Utiliza la región de reflección azul para correcciones y reducir los efectos de reflectancia del suelo y efectos atmosféricos (como dispersión de aerosol). Es decir que corrige las debilidades del Indice Diferencia Normalizado de Vegetación (NDVI).</t>
+  </si>
+  <si>
+    <t>Cultivos densos (media temporada y final de temporada)</t>
+  </si>
+  <si>
+    <t>Monitoreo de cultivos en sus primeras etapas de desarrollo y/o  cultivos dispersos  (menos del 40% de cobertura) en regiones áridas.</t>
+  </si>
+  <si>
+    <t>Diseñado para ser utilizado en las primeras etapas del cultivo en donde  debido a la cantidad de suelo descubierto y poco contenido de clorofila no se pueden utilizar otros índices.</t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1. Valores menores a 0,5 corresponden a cultivos con menor cantidad de cobertura verde.
 Valores mayores a 0,5 corresponden a cultivos con mayor cantidad de cobertura verde.</t>
   </si>
   <si>
-    <t>Útil en vegetación no densa o al inicio de temporada. Es menos sensible a cambio en la vegetación (cantidad y cobertura de la vegetación verde)</t>
-  </si>
-  <si>
-    <t>SAVI=((NIR-RED)/(NIR+RED+L))∗(1+L)</t>
-  </si>
-  <si>
-    <t>MSAVI2</t>
-  </si>
-  <si>
-    <t>Modified Soil Adjusted Vegetation Index </t>
-  </si>
-  <si>
-    <t>Indice de Vegetación Ajustado al Suelo Modificado</t>
-  </si>
-  <si>
-    <t>Mejora del SAVI reduciendo el ruido por el suelo e incrementando el rango de dinámico que señala a la vegetación mediante la siguiente fórmula.</t>
-  </si>
-  <si>
-    <t>Monitoreo del cultivo en sus primeras etapas de desarrollo.  vegetación en cultivo jóvenes y en regiones áridas con cultivos dispersos (menos del 40% de cobertura)</t>
-  </si>
-  <si>
-    <t>Diseñado para utilizar el las primeras etapas del cultivo en donde  debido a la cantidad de suelo descubierto y poco contenido de clorofila no se pueden utilizar otros índices.</t>
-  </si>
-  <si>
-    <t>MSAVI2=(2∗NIR+1-(√(2∗NIR+1)2-8(NIR-Red)))/2</t>
-  </si>
-  <si>
-    <t>Estado hídrico de planta y suelo</t>
-  </si>
-  <si>
-    <t>Monitoreo agua planta</t>
-  </si>
-  <si>
-    <t>NDMI/NDWI</t>
-  </si>
-  <si>
-    <t>Normalized Difference Moisture Index / Normalized Difference Water Index</t>
-  </si>
-  <si>
-    <t>Índice Diferencia Normalizado de Humedad / Índice Diferencial de Agua Normalizado</t>
-  </si>
-  <si>
-    <t>El NDMI y el NDWI (propuesto por Gao (1996) son índices que se calculan de la misma manera. Utiliza el infrarrojo cercano de onda corta (SWIR) que muestra una alta absorción de luz debido al agua para monitorear los cambio en el contenido de agua líquida en la vegetación</t>
-  </si>
-  <si>
-    <t>Monitorear el cambio en el contenido de agua líquida en la vegetación.</t>
-  </si>
-  <si>
-    <t>La vegetación verde se encuentra entre -0,1 y 0,4. Si bien los valores dependen del cultivo y temporada:
+    <t>Mejora del Indice de Vegetación Ajsutado al Suelo (SAVI) reduciendo la interferencia por la reflectancia del suelo e incrementando el rango  que discrimina a la vegetación mediante la siguiente fórmula.</t>
+  </si>
+  <si>
+    <t>Se construye utilizando las reflexiones de la luz infrarroja cercana (NIR) y la luz RedEdge. Mide el estado de salud de la planta siendo muy sensible a los cambio de Nitrógeno. Es mejor que el NDVI para cultivos en temporada media y tardía de crecimiento que ya han acumulado gran cantidad de clorofila.</t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1. La vegetación verde se encuentra entre  0,2 y 0,9. Los valores dependen del tipo de cultivo, región y temporada. En términos generales:
+Valores menores a 0,5 corresponden a cultivos con menor concentración de clorofila en hojas y menor capacidad de fotosíntesis (es decir plantas poco saludables o estresadas).
+Valores mayores a 0,5 corresponden a cultivos con mayor concentración de clorofila en hojas y mayor capacidad de fotosíntesis (es decir plantas vigorosas y saludables).</t>
+  </si>
+  <si>
+    <t>Eficiente para huertos frutales por mayor capacidad de penetración en la copa de árboles. En cultivos permanentes se debe utilizar junto con el NDVI</t>
+  </si>
+  <si>
+    <t>Medir el verdor de los cultivos y así el estado de salud de las plantas. 
+Monitorear la cantidad, calidad y desarrollo de un cultivo. 
+Monitorear sequías.</t>
+  </si>
+  <si>
+    <t>El rango de valores varía  de 0 a 2. Entre mayor el valor más descubierto está el suelo.</t>
+  </si>
+  <si>
+    <t>Índice Diferencial Normalizado de Humedad / Índice Diferencial de Agua Normalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre más cercano a 1  el valor, mayor  cantidad de agua líquida en la vegetación. </t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1. La vegetación verde se encuentra entre -0,1 y 0,4. Los valores dependen del cultivo (cantidad de madera dura, tipo de vegetación y cobertura) y temporada. Sin embargo, en términos generales:
 Valores entre -1 y 0 corresponden a no vegetación ni agua.
-Valores menores a 0 y 0,4 corresponden a  presencia de vegetación 
-Valores mayores a 0,4 corresponden a presencia de agua.</t>
-  </si>
-  <si>
-    <t>•Entre más cercano a uno mayor  cantidad de agua líquida en la vegetación. Los valores dependen de la cantidad de madera dura, el tipo de vegetación y cobertura. Durante un período de estrés hídrico el valor del NDWI o NDMI disminuye.</t>
-  </si>
-  <si>
-    <t>NDWI o NDMI=((NIR-SWIR)/(NIR+SWIR))</t>
-  </si>
-  <si>
-    <t>Monitoreo agua suelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDWI </t>
-  </si>
-  <si>
-    <t>Normalized Difference Water Index</t>
-  </si>
-  <si>
-    <t>Índice Diferencial de Agua Normalizado</t>
-  </si>
-  <si>
-    <t>Definido por McFeeter (1996) utiliza en infrarrojo cercano (NIR) y la banda verde para monitorear cambio en cuerpos de agua.</t>
-  </si>
-  <si>
-    <t>Monitorear  áreas con gran saturación de agua y cambios en masas de agua.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valores menores a 0,3 corresponden a no agua (suelo y vegetación)
-Valores mayores a 0,3 corresponden a agua. </t>
-  </si>
-  <si>
-    <t>NDWI =((GREEN -NIR)/(GREEN+NIR))</t>
-  </si>
-  <si>
-    <t>Monitoreo agua  planta suelo</t>
-  </si>
-  <si>
-    <t>TDVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature–Vegetation Dryness Index </t>
-  </si>
-  <si>
-    <t>Indice de Sequía de Vegetación y Temperatura</t>
-  </si>
-  <si>
-    <t>Integra temperatura, vegetación y humedad del suelo. Es decir compara la humedad del suelo y la temperatura con el NDVI.</t>
-  </si>
-  <si>
-    <t>Monitorear humedad del suelo y estrés hídrico de cultivo.</t>
-  </si>
-  <si>
-    <t>TVDI=(Ts-Tsmin)/(a+b∗NDVI-Tsmin)</t>
-  </si>
-  <si>
-    <t>Cobertura del suelo</t>
-  </si>
-  <si>
-    <t>Monitoreo suelos descubiertos</t>
-  </si>
-  <si>
-    <t>NDTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized Difference Tillage Index </t>
-  </si>
-  <si>
-    <t>Indice Diferencial Normalizado de Labranza</t>
-  </si>
-  <si>
-    <t>Estima la cubierta de residuos, mediante la diferencia en reflectancia entre 2 bandas infrarrojas de onda corta (SWIR) cerca de 1600nm y 2300nm.</t>
-  </si>
-  <si>
-    <t>Estimar la cobertura de suelo. En tierras agrícolas puede diferenciar agricultura tradicional de agricultura de conservación.</t>
-  </si>
-  <si>
-    <t>Valores cercanos a 0 corresponden a labranza tradicional.
-Valores mayores a 0,15  corresponden a labranza de conservación.</t>
-  </si>
-  <si>
-    <t>NDTI=(SWIR3-SWIR8)/(SWIR3+SWIR8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINDRI  </t>
-  </si>
-  <si>
-    <t>Shortwave infrared normalized difference residue index</t>
-  </si>
-  <si>
-    <t>Indice Diferencial Normalizado de Residuos de Infrarrojo de onda corta</t>
-  </si>
-  <si>
-    <t>Se calcula utilizando el infrarrojo de onda corta.</t>
-  </si>
-  <si>
-    <t>Utilizado para mapear los residuos de cultivos en los campos.</t>
-  </si>
-  <si>
-    <t>Valores menores o iguales a 0 corresponden a labranza tradicional.
-Valores mayores a 0,1 corresponden a labranza de conservación.</t>
-  </si>
-  <si>
-    <t>SINDRI=(R2210-R2260)/(R2210-R2260)</t>
-  </si>
-  <si>
-    <t>BSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bare Soil Index </t>
-  </si>
-  <si>
-    <t>Indice de Suelos Descubiertos</t>
-  </si>
-  <si>
-    <t>Es un indicador numérico que combina bandas espectrales azules, rojas, infrarrojas cercanas e infrarrojas de onda corta para capturar las variaciones del suelo.</t>
-  </si>
-  <si>
-    <t>Monitorear suelos descubiertos a los largo de la temporada.</t>
-  </si>
-  <si>
-    <t>El rango es de 0 a 2.</t>
-  </si>
-  <si>
-    <t> BSI=((RED+SWIR)-(NIR+BLUE))/((RED+SWIR)+(NIR+BLUE) )</t>
-  </si>
-  <si>
-    <t>Sin información disponible</t>
+Valores entre 0 y 0,4 corresponden a  presencia de vegetación. Entre más cerca de 0,4 el valor, mayor agua líquida en la planta. 
+Valores mayores a 0,4 corresponden a presencia cuerpos de agua.</t>
+  </si>
+  <si>
+    <t>Definido por McFeeter (1996) utiliza el infrarrojo cercano (NIR) y la banda verde para monitorear cambios en cuerpos de agua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ranto de valores varía de -1 a 1. En general. valores menores a 0,3 corresponden a suelo y vegetación y valores mayores a 0,3 corresponden a cuerpos de agua. </t>
+  </si>
+  <si>
+    <t>Los índices de vegetación son cálculos realizados mediante una o mas bandas espectrales registradas por los satélites de Teledetección.
+Para estimar la salud del cultivo  con datos visuales, el verdor de la vegetación es la propiedad más importante. Por esta razón, los índices de vegetación se basan mayormente en el verdor observado en las imágenes satelitales. Específicamente, la clorofila presente en las hojas es un indicador directo de la producción  y capacidad fotosintética. En este contexto, varios de los índices de vegetación están diseñados para comparar la actividad fotosintética en el campo y permiten ver diferencias relativas en la salud de los cultivos en el campo.</t>
+  </si>
+  <si>
+    <t>Discriminar entre agricultura tradicional y agricultura de conservación.</t>
+  </si>
+  <si>
+    <t>Identificar riesgo a erosión de suelos descubiertos.</t>
+  </si>
+  <si>
+    <t>Monitoreo de agua en la planta</t>
+  </si>
+  <si>
+    <t>Monitoreo de agua en el suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo del sistema suelo planta agua</t>
+  </si>
+  <si>
+    <t>Índice Diferencial Normalizado de Borde Rojo</t>
+  </si>
+  <si>
+    <t>Índice de Clorofila</t>
+  </si>
+  <si>
+    <t>Índice de Clorofila de Vegetación</t>
+  </si>
+  <si>
+    <t>Indice de Sequía. Vegetación y Temperatura</t>
+  </si>
+  <si>
+    <t>Indice Diferencial Normalizado de Residuos de Infrarrojo de Onda Corta</t>
+  </si>
+  <si>
+    <t>Cultivos con poco suelo descubierto.</t>
+  </si>
+  <si>
+    <t>Utiliza el infrarrojo cercano (NIR) y las bandas verde (GREEN) y roja (RED). Es mejor que el Indice Diferencial Normalizado de Vegetación (NDVI) para cultivos en temporada temprana y media (cobertura menor al 40%).</t>
+  </si>
+  <si>
+    <t>Similar al NDVI pero corrige los efectos del suelo cuando la vegetación es baja utilizando un factor de corrección (L). Por lo tanto, discrimina mejor en vegetación no densa (ej. cultivos al inicio de temporada).</t>
+  </si>
+  <si>
+    <t>El NDMI y el NDWI (propuesto por Gao (1996) son índices que se calculan de la misma manera. Utiliza el infrarrojo cercano de onda corta (SWIR) que muestra una alta absorción de luz debido al agua. Este índice permite monitorear los cambios en el contenido de agua líquida en la vegetación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medir el verdor de los cultivos y así el estado de salud de las plantas. 
+Monitorear la cantidad, calidad y desarrollo de un cultivo. </t>
+  </si>
+  <si>
+    <t>Monitoreo de impacto de temporalidad, estrés ambiental y aplicación de pesticidas en la salud del cultivo.</t>
+  </si>
+  <si>
+    <t>Estimar la cobertura de suelo. En tierras agrícolas puede diferenciar entre agricultura tradicional y agricultura de conservación.</t>
+  </si>
+  <si>
+    <t>Mapear los residuos de cultivos en los campos.</t>
+  </si>
+  <si>
+    <t>Monitorear vigor en cultivos jóvenes y en regiones áridas con cultivos dispersos.</t>
+  </si>
+  <si>
+    <t>Monitorear el estado de salud del cultivo y cambios en clorofila en vegetación no densa.</t>
+  </si>
+  <si>
+    <t>Monitorear y evaluar  variabilidad en el desarrollo del cultivo  de alta densidad.</t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1, en donde la vegetación verde  se encuentra entre 0,2 y 0,8. Estos valores dependen del tipo de cultivos, región y temporada, sin embargo, en términos generales:
+Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto).
+Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
+Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El rango de los valores varía de -1 a 1, en donde la vegetación saludable generalmente está entre 0,2 y 0,8. Los valores varrían segúnel tipo de cultivo, región y temporada. </t>
   </si>
 </sst>
 </file>
@@ -605,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -619,7 +626,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1273,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
-  <dimension ref="A3:N24"/>
+  <dimension ref="A3:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,40 +1308,40 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="84" x14ac:dyDescent="0.35">
@@ -1353,31 +1359,31 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>27</v>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="84" x14ac:dyDescent="0.35">
@@ -1395,34 +1401,34 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1437,31 +1443,31 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1479,34 +1485,34 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1521,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1563,34 +1569,34 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1602,34 +1608,34 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
@@ -1641,37 +1647,37 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1683,76 +1689,78 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="N12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
@@ -1760,38 +1768,40 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
@@ -1799,38 +1809,40 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
@@ -1838,38 +1850,40 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="52" x14ac:dyDescent="0.35">
@@ -1877,38 +1891,40 @@
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="42" x14ac:dyDescent="0.35">
@@ -1916,81 +1932,40 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2005,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF9CFF3-0937-4F8A-91C4-1674C31A8C4B}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C21"/>
+    <sheetView showGridLines="0" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2023,7 +1998,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="84" x14ac:dyDescent="0.35">
@@ -2031,24 +2006,24 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -2056,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -2064,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -2072,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -2080,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -2088,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -2096,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
@@ -2104,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
@@ -2112,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
@@ -2120,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
@@ -2128,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
@@ -2136,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
@@ -2144,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
@@ -2152,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17B2C5-57D3-4AE1-8EEA-307883B624A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CFBD92-8E8A-4A0F-A10D-45928D218AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="157">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Detección temprana de estrés hídrico (sequía).</t>
   </si>
   <si>
-    <t>Detección de zonas anegadas y charcas.</t>
-  </si>
-  <si>
-    <t>Cuantificar cantidad de residuos post cosecha.</t>
-  </si>
-  <si>
     <t>Atmospherically resistant vegetation index</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
     <t>CVI=(NIR/GREEN)∗(RED/GREEN)</t>
   </si>
   <si>
-    <t>Monitoreo vigor planta ajustado al suelo</t>
-  </si>
-  <si>
     <t>SAVI</t>
   </si>
   <si>
@@ -295,21 +286,6 @@
   </si>
   <si>
     <t>NDWI =((GREEN -NIR)/(GREEN+NIR))</t>
-  </si>
-  <si>
-    <t>TDVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature–Vegetation Dryness Index </t>
-  </si>
-  <si>
-    <t>Integra temperatura, vegetación y humedad del suelo. Es decir compara la humedad del suelo y la temperatura con el NDVI.</t>
-  </si>
-  <si>
-    <t>Monitorear humedad del suelo y estrés hídrico de cultivo.</t>
-  </si>
-  <si>
-    <t>TVDI=(Ts-Tsmin)/(a+b∗NDVI-Tsmin)</t>
   </si>
   <si>
     <t>Cobertura del suelo</t>
@@ -377,9 +353,6 @@
     <t>Se dividen en dos grupos: i) los que permiten el monitoreo del agua líquida en el cultivo y ii) los que permiten el monitoreo de la humedad en el suelo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tienen el fin de monitorear la cobertura del suelo. </t>
-  </si>
-  <si>
     <t>Comprender el estado nutricional de la planta (mayormente absorción de Nitrógeno).</t>
   </si>
   <si>
@@ -390,9 +363,6 @@
   </si>
   <si>
     <t>Evaluación de la evolución temporal durante largos períodos de tiempo de la humedad del suelo.</t>
-  </si>
-  <si>
-    <t>Evaluación de la evolución temporal durante largos períodos de tiempo de la cobertura del suelo.</t>
   </si>
   <si>
     <t>Utiliza básicamente la fórmula del Indice Diferencial Normalizado de Vegetación (NDVI) corregida para los efectos de dispersión atmosférica en el espectro de reflectancia rojo, utilizando las medidas en longitudes de ondas azules</t>
@@ -479,21 +449,6 @@
 Para estimar la salud del cultivo  con datos visuales, el verdor de la vegetación es la propiedad más importante. Por esta razón, los índices de vegetación se basan mayormente en el verdor observado en las imágenes satelitales. Específicamente, la clorofila presente en las hojas es un indicador directo de la producción  y capacidad fotosintética. En este contexto, varios de los índices de vegetación están diseñados para comparar la actividad fotosintética en el campo y permiten ver diferencias relativas en la salud de los cultivos en el campo.</t>
   </si>
   <si>
-    <t>Discriminar entre agricultura tradicional y agricultura de conservación.</t>
-  </si>
-  <si>
-    <t>Identificar riesgo a erosión de suelos descubiertos.</t>
-  </si>
-  <si>
-    <t>Monitoreo de agua en la planta</t>
-  </si>
-  <si>
-    <t>Monitoreo de agua en el suelo</t>
-  </si>
-  <si>
-    <t>Monitoreo del sistema suelo planta agua</t>
-  </si>
-  <si>
     <t>Índice Diferencial Normalizado de Borde Rojo</t>
   </si>
   <si>
@@ -501,9 +456,6 @@
   </si>
   <si>
     <t>Índice de Clorofila de Vegetación</t>
-  </si>
-  <si>
-    <t>Indice de Sequía. Vegetación y Temperatura</t>
   </si>
   <si>
     <t>Indice Diferencial Normalizado de Residuos de Infrarrojo de Onda Corta</t>
@@ -550,6 +502,33 @@
   </si>
   <si>
     <t xml:space="preserve">El rango de los valores varía de -1 a 1, en donde la vegetación saludable generalmente está entre 0,2 y 0,8. Los valores varrían segúnel tipo de cultivo, región y temporada. </t>
+  </si>
+  <si>
+    <t>NDVI y NDWI</t>
+  </si>
+  <si>
+    <t>Monitoreo planta ajustado al suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo agua planta</t>
+  </si>
+  <si>
+    <t>Monitoreo  agua  suelo</t>
+  </si>
+  <si>
+    <t>Monitoreo sequía</t>
+  </si>
+  <si>
+    <t>NDDI</t>
+  </si>
+  <si>
+    <t>NDWI =((NDVI -NDWI)/(NDVI+NDWI))</t>
+  </si>
+  <si>
+    <t>Índice Normalizado de Sequía</t>
+  </si>
+  <si>
+    <t>Utiliza imágnes de MOD13Q4N.</t>
   </si>
 </sst>
 </file>
@@ -592,12 +571,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -612,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -631,6 +622,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,8 +944,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N18" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B3:N18" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N19" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B3:N19" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8630E585-A4D8-4762-826D-E18645296559}" name="Tipo de Índice" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{CEDED712-F43B-4A82-8E55-456FD9BCF0D0}" name="¿Qué mide?" dataDxfId="13"/>
@@ -961,8 +966,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEB1BA68-C192-4C1E-B6EA-B70DE08EAA74}" name="Principales_Usos" displayName="Principales_Usos" ref="B9:C21" totalsRowShown="0">
-  <autoFilter ref="B9:C21" xr:uid="{A3D14F35-72FA-4E47-A178-54567F32CCF6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEB1BA68-C192-4C1E-B6EA-B70DE08EAA74}" name="Principales_Usos" displayName="Principales_Usos" ref="B8:C15" totalsRowShown="0">
+  <autoFilter ref="B8:C15" xr:uid="{A3D14F35-72FA-4E47-A178-54567F32CCF6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{26DB8204-5AE9-463D-8E0C-358C06A9DEC2}" name="Tipo de Índice"/>
     <tableColumn id="2" xr3:uid="{9FCF5DED-343D-421B-B216-1840A920207E}" name="Principales Usos" dataDxfId="2"/>
@@ -972,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C878DE64-5465-4D0E-A0C9-A914A5CA2482}" name="Descripción" displayName="Descripción" ref="B3:C6" totalsRowShown="0">
-  <autoFilter ref="B3:C6" xr:uid="{7E6EC34C-7B92-4566-84BB-282FE6A4300F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C878DE64-5465-4D0E-A0C9-A914A5CA2482}" name="Descripción" displayName="Descripción" ref="B3:C5" totalsRowShown="0">
+  <autoFilter ref="B3:C5" xr:uid="{7E6EC34C-7B92-4566-84BB-282FE6A4300F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{191F5CD4-E126-457D-99ED-B36503E0AB05}" name="Tipo de Índice" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6A070FD1-C486-4809-83EF-F3B9AC21435B}" name="Descripción" dataDxfId="0"/>
@@ -1279,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
-  <dimension ref="A3:N18"/>
+  <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,7 +1360,7 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1365,19 +1370,19 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>20</v>
@@ -1397,35 +1402,35 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
@@ -1439,35 +1444,35 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" t="s">
         <v>46</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1481,35 +1486,35 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.35">
@@ -1523,35 +1528,35 @@
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="N8" t="s">
         <v>56</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1565,35 +1570,35 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.35">
@@ -1607,35 +1612,35 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
@@ -1647,37 +1652,37 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1689,37 +1694,37 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="73.5" x14ac:dyDescent="0.35">
@@ -1727,40 +1732,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="K13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
@@ -1768,205 +1773,213 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="K14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="E16" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="L16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="2:14" s="10" customFormat="1" ht="52" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G17" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="J17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="L17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="4" t="s">
+    </row>
+    <row r="18" spans="2:14" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="F18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="G18" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="52" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="H18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="J18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="K18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="42" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1978,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF9CFF3-0937-4F8A-91C4-1674C31A8C4B}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B3:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -2015,23 +2028,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -2039,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -2047,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -2055,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -2063,15 +2076,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
+      <c r="B14" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
@@ -2079,55 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CFBD92-8E8A-4A0F-A10D-45928D218AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430764A-0277-4B6A-958A-3A2708CEB13D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Definido por McFeeter (1996) utiliza el infrarrojo cercano (NIR) y la banda verde para monitorear cambios en cuerpos de agua.</t>
   </si>
   <si>
-    <t xml:space="preserve">El ranto de valores varía de -1 a 1. En general. valores menores a 0,3 corresponden a suelo y vegetación y valores mayores a 0,3 corresponden a cuerpos de agua. </t>
-  </si>
-  <si>
     <t>Los índices de vegetación son cálculos realizados mediante una o mas bandas espectrales registradas por los satélites de Teledetección.
 Para estimar la salud del cultivo  con datos visuales, el verdor de la vegetación es la propiedad más importante. Por esta razón, los índices de vegetación se basan mayormente en el verdor observado en las imágenes satelitales. Específicamente, la clorofila presente en las hojas es un indicador directo de la producción  y capacidad fotosintética. En este contexto, varios de los índices de vegetación están diseñados para comparar la actividad fotosintética en el campo y permiten ver diferencias relativas en la salud de los cultivos en el campo.</t>
   </si>
@@ -528,7 +525,22 @@
     <t>Índice Normalizado de Sequía</t>
   </si>
   <si>
-    <t>Utiliza imágnes de MOD13Q4N.</t>
+    <t>Utiliza imágnes MODIS para monitoreo y alerta de sequía. Específicamente utiliza el producto MOD13Q4N (MODIS/Terra Vegetation Indices Daily Rolling-8-Day L3 Global 250m SIN Grid V005) con frecuencia semanal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El rango de valores varía de -1 a 1. En general. valores menores a 0,3 corresponden a suelo y vegetación y valores mayores a 0,3 corresponden a cuerpos de agua. </t>
+  </si>
+  <si>
+    <t>Monitoreo y alerta de sequía.</t>
+  </si>
+  <si>
+    <t>Normalized DifferenceDrought Index</t>
+  </si>
+  <si>
+    <t>Sequía</t>
+  </si>
+  <si>
+    <t>El rango de valores varía de -20 a 18. Valores menores de -0,2 corresponden a areas cubiertas por nieve, suelos saturados y/ o lámina de agua. Valores entre -0,2 a 0,6 representan a áreas de vegetación sin estrés hídrico. Valores de 2,2 a 5 corresponde a áreas con menor humedad en suelo. Valores entre 5 a 9  corresponden a situación de sequedad. Valores mayores a 9 corresponden a áreas de vegetación  con estrés hídrico. Valores mayores a 18 corresponde a áreas con déficit hídrico alto.</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,7 +1391,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>109</v>
@@ -1418,7 +1430,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>111</v>
@@ -1460,10 +1472,10 @@
         <v>114</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>44</v>
@@ -1535,7 +1547,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>115</v>
@@ -1577,7 +1589,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>115</v>
@@ -1586,7 +1598,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>113</v>
@@ -1619,16 +1631,16 @@
         <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>110</v>
@@ -1652,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -1667,10 +1679,10 @@
         <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>118</v>
@@ -1694,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -1735,7 +1747,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>74</v>
@@ -1747,10 +1759,10 @@
         <v>125</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>76</v>
@@ -1776,7 +1788,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>78</v>
@@ -1797,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>102</v>
@@ -1809,29 +1821,37 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="L15" s="9" t="s">
         <v>102</v>
       </c>
@@ -1839,7 +1859,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
@@ -1868,7 +1888,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>89</v>
@@ -1900,7 +1920,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>102</v>
@@ -1909,7 +1929,7 @@
         <v>93</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>94</v>
@@ -1971,7 +1991,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2019,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3"/>
     </row>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430764A-0277-4B6A-958A-3A2708CEB13D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DCA804-EB23-4283-804C-DFC67E252AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -1298,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DCA804-EB23-4283-804C-DFC67E252AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FEAED6-56FF-4DA2-AD9E-2E9650A4CCFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -401,10 +401,6 @@
     <t>Diseñado para ser utilizado en las primeras etapas del cultivo en donde  debido a la cantidad de suelo descubierto y poco contenido de clorofila no se pueden utilizar otros índices.</t>
   </si>
   <si>
-    <t>El rango de los valores varía de -1 a 1. Valores menores a 0,5 corresponden a cultivos con menor cantidad de cobertura verde.
-Valores mayores a 0,5 corresponden a cultivos con mayor cantidad de cobertura verde.</t>
-  </si>
-  <si>
     <t>Mejora del Indice de Vegetación Ajsutado al Suelo (SAVI) reduciendo la interferencia por la reflectancia del suelo e incrementando el rango  que discrimina a la vegetación mediante la siguiente fórmula.</t>
   </si>
   <si>
@@ -431,12 +427,6 @@
   </si>
   <si>
     <t xml:space="preserve">Entre más cercano a 1  el valor, mayor  cantidad de agua líquida en la vegetación. </t>
-  </si>
-  <si>
-    <t>El rango de los valores varía de -1 a 1. La vegetación verde se encuentra entre -0,1 y 0,4. Los valores dependen del cultivo (cantidad de madera dura, tipo de vegetación y cobertura) y temporada. Sin embargo, en términos generales:
-Valores entre -1 y 0 corresponden a no vegetación ni agua.
-Valores entre 0 y 0,4 corresponden a  presencia de vegetación. Entre más cerca de 0,4 el valor, mayor agua líquida en la planta. 
-Valores mayores a 0,4 corresponden a presencia cuerpos de agua.</t>
   </si>
   <si>
     <t>Definido por McFeeter (1996) utiliza el infrarrojo cercano (NIR) y la banda verde para monitorear cambios en cuerpos de agua.</t>
@@ -519,18 +509,12 @@
     <t>NDDI</t>
   </si>
   <si>
-    <t>NDWI =((NDVI -NDWI)/(NDVI+NDWI))</t>
-  </si>
-  <si>
     <t>Índice Normalizado de Sequía</t>
   </si>
   <si>
     <t>Utiliza imágnes MODIS para monitoreo y alerta de sequía. Específicamente utiliza el producto MOD13Q4N (MODIS/Terra Vegetation Indices Daily Rolling-8-Day L3 Global 250m SIN Grid V005) con frecuencia semanal.</t>
   </si>
   <si>
-    <t xml:space="preserve">El rango de valores varía de -1 a 1. En general. valores menores a 0,3 corresponden a suelo y vegetación y valores mayores a 0,3 corresponden a cuerpos de agua. </t>
-  </si>
-  <si>
     <t>Monitoreo y alerta de sequía.</t>
   </si>
   <si>
@@ -541,13 +525,100 @@
   </si>
   <si>
     <t>El rango de valores varía de -20 a 18. Valores menores de -0,2 corresponden a areas cubiertas por nieve, suelos saturados y/ o lámina de agua. Valores entre -0,2 a 0,6 representan a áreas de vegetación sin estrés hídrico. Valores de 2,2 a 5 corresponde a áreas con menor humedad en suelo. Valores entre 5 a 9  corresponden a situación de sequedad. Valores mayores a 9 corresponden a áreas de vegetación  con estrés hídrico. Valores mayores a 18 corresponde a áreas con déficit hídrico alto.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valores cercanos a uno son un buen indicador de vegetación verde saludable.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valores menores a 0.1 corresponden a suelo descubiertos, roca, arena o nieve. 
+Valores entre 0.1 y 0.5 correspondes a arbustos, pastos o cultivos en senescencia. Valores entre 0.6 y 0.9 corresponde a vegetación densa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valores cercanos a uno son un buen indicador de vegetación verde saludable. 
+Valores menores a 0.1 corresponden a suelo descubiertos, roca, arena o nieve. 
+Valores entre 0.1 y 0.5 correspondes a arbustos, pastos o cultivos en senescencia. Valores entre 0.6 y 0.9 corresponde a vegetación densa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los valores altos de NDWI (en azul) corresponden a alto contenido de agua en la planta y alta cobertura vegetal de lsuelo. Los valores bajos de NDWI (en rojo) representan bajo contenido de agua en vegetación y cobertura escasa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>El rango de valores varía de -1 a 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valores altos (en azul) corresponden a cuerpos de agua, mientras que valores vajo (en rojo) corresponden a no cuerpos de agua.</t>
+    </r>
+  </si>
+  <si>
+    <t>NDDI =((NDVI -NDWI)/(NDVI+NDWI))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +653,15 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +680,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -615,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -649,6 +733,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
   <dimension ref="A3:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,13 +1402,13 @@
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="25.36328125" customWidth="1"/>
     <col min="9" max="9" width="35.36328125" customWidth="1"/>
     <col min="10" max="10" width="38.1796875" customWidth="1"/>
-    <col min="11" max="11" width="48.81640625" customWidth="1"/>
+    <col min="11" max="11" width="64.81640625" customWidth="1"/>
     <col min="12" max="12" width="21.6328125" customWidth="1"/>
     <col min="13" max="13" width="47.81640625" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
@@ -1388,10 +1482,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>109</v>
@@ -1430,7 +1524,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>111</v>
@@ -1472,10 +1566,10 @@
         <v>114</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>44</v>
@@ -1547,22 +1641,22 @@
         <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>55</v>
@@ -1589,7 +1683,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>115</v>
@@ -1598,7 +1692,7 @@
         <v>58</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>113</v>
@@ -1631,16 +1725,16 @@
         <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>110</v>
@@ -1655,91 +1749,91 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:14" s="16" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="J12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="63" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="N12" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="65" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1747,7 +1841,7 @@
         <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>74</v>
@@ -1756,22 +1850,22 @@
         <v>75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>102</v>
@@ -1788,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>78</v>
@@ -1803,13 +1897,13 @@
         <v>102</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>102</v>
@@ -1821,36 +1915,36 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>102</v>
@@ -1859,7 +1953,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
@@ -1888,7 +1982,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>89</v>
@@ -1920,7 +2014,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>102</v>
@@ -1929,7 +2023,7 @@
         <v>93</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>94</v>
@@ -1973,7 +2067,7 @@
         <v>100</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>102</v>
@@ -1991,7 +2085,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2003,8 +2097,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2039,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3"/>
     </row>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FEAED6-56FF-4DA2-AD9E-2E9650A4CCFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D823099-028C-4FB6-801C-6A811DAC1477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>Índices de Suelo</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Regiones montañosas o con alto contenido de material particulado</t>
-  </si>
-  <si>
-    <t>CVI</t>
   </si>
   <si>
     <t>Normalized Difference Vegetation Index</t>
@@ -222,15 +219,6 @@
     <t>GCI=(NIR/GREEN)-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Chlorophyll vegetation index </t>
-  </si>
-  <si>
-    <t>Muy sensible  en vegetación  no densa, vegetación decidua  o al inicio de temporada</t>
-  </si>
-  <si>
-    <t>CVI=(NIR/GREEN)∗(RED/GREEN)</t>
-  </si>
-  <si>
     <t>SAVI</t>
   </si>
   <si>
@@ -306,29 +294,9 @@
     <t>Estima la cubierta de residuos, mediante la diferencia en reflectancia entre 2 bandas infrarrojas de onda corta (SWIR) cerca de 1600nm y 2300nm.</t>
   </si>
   <si>
-    <t>Valores cercanos a 0 corresponden a labranza tradicional.
-Valores mayores a 0,15  corresponden a labranza de conservación.</t>
-  </si>
-  <si>
     <t>NDTI=(SWIR3-SWIR8)/(SWIR3+SWIR8)</t>
   </si>
   <si>
-    <t xml:space="preserve">SINDRI  </t>
-  </si>
-  <si>
-    <t>Shortwave infrared normalized difference residue index</t>
-  </si>
-  <si>
-    <t>Se calcula utilizando el infrarrojo de onda corta.</t>
-  </si>
-  <si>
-    <t>Valores menores o iguales a 0 corresponden a labranza tradicional.
-Valores mayores a 0,1 corresponden a labranza de conservación.</t>
-  </si>
-  <si>
-    <t>SINDRI=(R2210-R2260)/(R2210-R2260)</t>
-  </si>
-  <si>
     <t>BSI</t>
   </si>
   <si>
@@ -371,24 +339,6 @@
     <t>Entre más cercano a 1 el valor, las condiciones de vigor del cultivos son mejores</t>
   </si>
   <si>
-    <t>Su rango de valores varía de 1 a 2,4.  Entre más cercano a 2,4 mayor contenido de clorofila.</t>
-  </si>
-  <si>
-    <t>El rango de los valores varía de -1 a 1, en donde la vegetación verde generalmente está entre 0,2 y 0,8, sin embargo estos valores dependen del tipo de cultivo, región y temporada. En términos generales:
-Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubiertos, rocas, nieve, concreto).
-Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
-Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
-  </si>
-  <si>
-    <t>El rango de los valores varía de -1 a 1. Si bien los valores dependen del tipo de cultivo, región y temporada, en términos generales:
-Valores entre -1 y 0 están asociados a presencia de agua o suelo desnudo.
-Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
-Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
-  </si>
-  <si>
-    <t>El rango de valores varía entre 0 a 2.4. Entre más cercano a 2,4 mayor contenido de clorofila</t>
-  </si>
-  <si>
     <t>Utiliza la región de reflección azul para correcciones y reducir los efectos de reflectancia del suelo y efectos atmosféricos (como dispersión de aerosol). Es decir que corrige las debilidades del Indice Diferencia Normalizado de Vegetación (NDVI).</t>
   </si>
   <si>
@@ -405,11 +355,6 @@
   </si>
   <si>
     <t>Se construye utilizando las reflexiones de la luz infrarroja cercana (NIR) y la luz RedEdge. Mide el estado de salud de la planta siendo muy sensible a los cambio de Nitrógeno. Es mejor que el NDVI para cultivos en temporada media y tardía de crecimiento que ya han acumulado gran cantidad de clorofila.</t>
-  </si>
-  <si>
-    <t>El rango de los valores varía de -1 a 1. La vegetación verde se encuentra entre  0,2 y 0,9. Los valores dependen del tipo de cultivo, región y temporada. En términos generales:
-Valores menores a 0,5 corresponden a cultivos con menor concentración de clorofila en hojas y menor capacidad de fotosíntesis (es decir plantas poco saludables o estresadas).
-Valores mayores a 0,5 corresponden a cultivos con mayor concentración de clorofila en hojas y mayor capacidad de fotosíntesis (es decir plantas vigorosas y saludables).</t>
   </si>
   <si>
     <t>Eficiente para huertos frutales por mayor capacidad de penetración en la copa de árboles. En cultivos permanentes se debe utilizar junto con el NDVI</t>
@@ -420,9 +365,6 @@
 Monitorear sequías.</t>
   </si>
   <si>
-    <t>El rango de valores varía  de 0 a 2. Entre mayor el valor más descubierto está el suelo.</t>
-  </si>
-  <si>
     <t>Índice Diferencial Normalizado de Humedad / Índice Diferencial de Agua Normalizado</t>
   </si>
   <si>
@@ -442,16 +384,7 @@
     <t>Índice de Clorofila</t>
   </si>
   <si>
-    <t>Índice de Clorofila de Vegetación</t>
-  </si>
-  <si>
-    <t>Indice Diferencial Normalizado de Residuos de Infrarrojo de Onda Corta</t>
-  </si>
-  <si>
     <t>Cultivos con poco suelo descubierto.</t>
-  </si>
-  <si>
-    <t>Utiliza el infrarrojo cercano (NIR) y las bandas verde (GREEN) y roja (RED). Es mejor que el Indice Diferencial Normalizado de Vegetación (NDVI) para cultivos en temporada temprana y media (cobertura menor al 40%).</t>
   </si>
   <si>
     <t>Similar al NDVI pero corrige los efectos del suelo cuando la vegetación es baja utilizando un factor de corrección (L). Por lo tanto, discrimina mejor en vegetación no densa (ej. cultivos al inicio de temporada).</t>
@@ -470,30 +403,12 @@
     <t>Estimar la cobertura de suelo. En tierras agrícolas puede diferenciar entre agricultura tradicional y agricultura de conservación.</t>
   </si>
   <si>
-    <t>Mapear los residuos de cultivos en los campos.</t>
-  </si>
-  <si>
     <t>Monitorear vigor en cultivos jóvenes y en regiones áridas con cultivos dispersos.</t>
   </si>
   <si>
-    <t>Monitorear el estado de salud del cultivo y cambios en clorofila en vegetación no densa.</t>
-  </si>
-  <si>
     <t>Monitorear y evaluar  variabilidad en el desarrollo del cultivo  de alta densidad.</t>
   </si>
   <si>
-    <t>El rango de los valores varía de -1 a 1, en donde la vegetación verde  se encuentra entre 0,2 y 0,8. Estos valores dependen del tipo de cultivos, región y temporada, sin embargo, en términos generales:
-Valores menores a 0,1 corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto).
-Valores menores a 0,5 corresponde vegetación escasa y/o  cultivos estresados (por enfermedad o estrés hídrico).
-Valores mayores a 0,5 corresponden a vegetación densa y/o cultivos sanos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El rango de los valores varía de -1 a 1, en donde la vegetación saludable generalmente está entre 0,2 y 0,8. Los valores varrían segúnel tipo de cultivo, región y temporada. </t>
-  </si>
-  <si>
-    <t>NDVI y NDWI</t>
-  </si>
-  <si>
     <t>Monitoreo planta ajustado al suelo</t>
   </si>
   <si>
@@ -503,122 +418,36 @@
     <t>Monitoreo  agua  suelo</t>
   </si>
   <si>
-    <t>Monitoreo sequía</t>
-  </si>
-  <si>
-    <t>NDDI</t>
-  </si>
-  <si>
-    <t>Índice Normalizado de Sequía</t>
-  </si>
-  <si>
-    <t>Utiliza imágnes MODIS para monitoreo y alerta de sequía. Específicamente utiliza el producto MOD13Q4N (MODIS/Terra Vegetation Indices Daily Rolling-8-Day L3 Global 250m SIN Grid V005) con frecuencia semanal.</t>
-  </si>
-  <si>
-    <t>Monitoreo y alerta de sequía.</t>
-  </si>
-  <si>
-    <t>Normalized DifferenceDrought Index</t>
-  </si>
-  <si>
-    <t>Sequía</t>
-  </si>
-  <si>
-    <t>El rango de valores varía de -20 a 18. Valores menores de -0,2 corresponden a areas cubiertas por nieve, suelos saturados y/ o lámina de agua. Valores entre -0,2 a 0,6 representan a áreas de vegetación sin estrés hídrico. Valores de 2,2 a 5 corresponde a áreas con menor humedad en suelo. Valores entre 5 a 9  corresponden a situación de sequedad. Valores mayores a 9 corresponden a áreas de vegetación  con estrés hídrico. Valores mayores a 18 corresponde a áreas con déficit hídrico alto.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valores cercanos a uno son un buen indicador de vegetación verde saludable.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
+    <t>El rango de los valores varía de -1 a 1, en donde la vegetación verde  se encuentra entre 0,2 y 1. 
+Valores menores a 0,1 (en rojo) corresponden a suelos sin vegetación (suelos descubierto, rocas, nieve, concreto).
+Valores mayores a 0,5 (en verde) corresponden a vegetación densa y/o cultivos sanos.</t>
+  </si>
+  <si>
+    <t>El rango de valores varía entre 0 a 3. Entre más cercano a  3 ( en verde) mayor contenido de clorofila.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El rango de los valores varía de -1 a 1. Valores cercanos a 1 corresponden a vegetación densa. 
+Valores menores a 0.1 corresponden a suelo descubiertos, roca, arena o nieve. </t>
+  </si>
+  <si>
+    <t>El rango de los valores varía de -1 a 1. Los valores altos de NDWI (en azul) corresponden a alto contenido de agua en la planta y alta cobertura vegetal del suelo. Los valores bajos de NDWI (en rojo) representan bajo contenido de agua en vegetación y cobertura escasa.</t>
+  </si>
+  <si>
+    <t>El rango de valores varía de -1 a 1.Valores altos (en azul) corresponden a cuerpos de agua, mientras que valores bajos (en rojo) corresponden a no cuerpos de agua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores cercanos a 0 (en rojo) corresponden a suelos descubiertos.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valores menores a 0.1 corresponden a suelo descubiertos, roca, arena o nieve. 
-Valores entre 0.1 y 0.5 correspondes a arbustos, pastos o cultivos en senescencia. Valores entre 0.6 y 0.9 corresponde a vegetación densa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valores cercanos a uno son un buen indicador de vegetación verde saludable. 
-Valores menores a 0.1 corresponden a suelo descubiertos, roca, arena o nieve. 
-Valores entre 0.1 y 0.5 correspondes a arbustos, pastos o cultivos en senescencia. Valores entre 0.6 y 0.9 corresponde a vegetación densa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El rango de los valores varía de -1 a 1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Los valores altos de NDWI (en azul) corresponden a alto contenido de agua en la planta y alta cobertura vegetal de lsuelo. Los valores bajos de NDWI (en rojo) representan bajo contenido de agua en vegetación y cobertura escasa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>El rango de valores varía de -1 a 1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Valores altos (en azul) corresponden a cuerpos de agua, mientras que valores vajo (en rojo) corresponden a no cuerpos de agua.</t>
-    </r>
-  </si>
-  <si>
-    <t>NDDI =((NDVI -NDWI)/(NDVI+NDWI))</t>
+  </si>
+  <si>
+    <t>Valores cercanos a 0.5 (en rojo) corresponden a suelos descubiertos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,15 +482,8 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,12 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -726,23 +542,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,8 +859,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N19" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B3:N19" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE810415-CE40-4E6C-B5FD-7BDC715B2FF7}" name="Tabla3" displayName="Tabla3" ref="B3:N15" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B3:N15" xr:uid="{D2565C7E-B0BA-4B79-827F-588BCACAD97E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{8630E585-A4D8-4762-826D-E18645296559}" name="Tipo de Índice" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{CEDED712-F43B-4A82-8E55-456FD9BCF0D0}" name="¿Qué mide?" dataDxfId="13"/>
@@ -1390,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
-  <dimension ref="A3:N19"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,7 +1211,7 @@
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="25.36328125" customWidth="1"/>
@@ -1419,43 +1228,43 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="77" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1470,34 +1279,34 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="84" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1512,31 +1321,31 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
@@ -1554,34 +1363,34 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="63" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1596,34 +1405,34 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" t="s">
         <v>51</v>
       </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="94.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1638,31 +1447,31 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" t="s">
         <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.35">
@@ -1680,34 +1489,34 @@
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1716,132 +1525,132 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="16" t="s">
+      <c r="K11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="D12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="G12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="16" t="s">
+      <c r="J12" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="65" x14ac:dyDescent="0.35">
+      <c r="K12" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>74</v>
@@ -1850,250 +1659,111 @@
         <v>75</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="10" customFormat="1" ht="52" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="84" x14ac:dyDescent="0.35">
@@ -2134,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -2143,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -2151,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
@@ -2159,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
@@ -2167,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -2175,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -2183,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -2191,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
@@ -2199,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
@@ -2207,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/DATAAGRO-Geomática/Tablas Indices.xlsx
+++ b/DATAAGRO-Geomática/Tablas Indices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\DATAAGRO-Geomática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D823099-028C-4FB6-801C-6A811DAC1477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1EC57-91C5-4F87-AB30-A16901171B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81953BAB-F9AD-4D2A-A338-EC11C61F63B9}"/>
   </bookViews>
   <sheets>
     <sheet name="INDICES-DETALLE" sheetId="1" r:id="rId1"/>
@@ -1201,29 +1201,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0913B7D0-26AD-476B-A622-245B2FD10992}">
   <dimension ref="A3:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="25.36328125" customWidth="1"/>
-    <col min="9" max="9" width="35.36328125" customWidth="1"/>
-    <col min="10" max="10" width="38.1796875" customWidth="1"/>
-    <col min="11" max="11" width="64.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.6328125" customWidth="1"/>
-    <col min="13" max="13" width="47.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" customWidth="1"/>
+    <col min="11" max="11" width="64.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="47.77734375" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1348,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1390,7 +1390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1432,7 +1432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1474,7 +1474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1558,7 +1558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1782,16 +1782,16 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="78.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="78.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="84" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="84" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>1</v>
       </c>
